--- a/GeneticProgrammingPortfolio/sheets/dowjones_2005-2007-MOD.xlsx
+++ b/GeneticProgrammingPortfolio/sheets/dowjones_2005-2007-MOD.xlsx
@@ -56,6 +56,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
